--- a/Modulo_4_Modulos_em_Python/Aula/workbook.xlsx
+++ b/Modulo_4_Modulos_em_Python/Aula/workbook.xlsx
@@ -413,14 +413,84 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Idade</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nota</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Marieli</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Luiz</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Judite</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>